--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_223.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_223.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1414473684210526</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min/5', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_180</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'Bb', 'Eb']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.682499, 42.475668)]</t>
+          <t>[['F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(28.727, 33.763)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:05.558652')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1519699812382739</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F'], ['F', 'Bb', 'F']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B'], ['B', 'E', 'B']]</t>
+          <t>[['D/5', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.59, 5.99), (62.53, 66.23)]</t>
+          <t>[['F/A', 'C:7/G', 'F/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299), (19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:22.297891', '0:01:32.619160')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:05:02.760000', '0:05:04.820000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E:min', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:min/E', 'B:maj/D#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(33.686916, 42.951678)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(71.92, 74.5)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:09.162102', '0:00:15.791400')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08791208791208791</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (35.22, 40.0), (11.7, 20.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (39.02, 43.96), (2.3, 7.04)]</t>
+          <t>[('0:00:45.522000', '0:00:50.551000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:06.100000', '0:01:17.500000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
-        </is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03875471051730044</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb', 'Bb'], ['F:7', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.102281, 24.401147)]</t>
+          <t>[['D', 'D', 'D', 'D', 'D'], ['A:7', 'D', 'D', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.96, 65.56)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:03:21.950000', '0:03:34.620000'), ('0:00:44.740000', '0:00:48.740000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:10.860000', '0:00:16.050000'), ('0:00:09.820000', '0:00:15.020000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2077922077922078</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:08.340000', '0:00:15.040000'), ('0:00:20.560000', '0:00:23.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:15.580000', '0:01:26.060000'), ('0:01:14.400000', '0:01:21.680000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16), (16.84, 19.46)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(60.72, 68.12), (59.5, 65.04)]</t>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2508710801393728</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.32, 63.7)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.939, 3.682)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1302197802197802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.7, 11.56)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(139.240204, 144.766553)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5441176470588235</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.599751, 6.705328)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3025210084033613</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1376848546659867</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(30.58, 45.59)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.55, 41.46)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1756272401433692</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'B:min', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'F#:min', 'B', 'E']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.670589, 29.925283)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.953548, 18.083616)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3676470588235294</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(55.68, 66.1)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.415079, 16.608639)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08114035087719298</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'Bb'], ['Eb', 'G', 'C'], ['F', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'G'], ['C', 'E', 'A'], ['D', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(94.372267, 102.650181), (134.983968, 138.583061), (75.355124, 80.742154)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.439841, 9.410453), (55.107324, 59.159206), (17.374897, 24.108684)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
